--- a/archivos/preguntas.xlsx
+++ b/archivos/preguntas.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="PREGUNTAS" sheetId="1" r:id="rId1"/>
     <sheet name="CRITERIO" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGUNTAS!$A$1:$J$98</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="98">
   <si>
     <t>El control de acceso en los espacios confinados pertenece a:</t>
   </si>
@@ -28,15 +31,6 @@
     <t>¿Un espacio confinado con una pequeña abertura y atmosfera toxica, está</t>
   </si>
   <si>
-    <t>El estudiante cumplio con la asistencia a la capacitación</t>
-  </si>
-  <si>
-    <t>El estudiante tenia conocimientos previos del modulo</t>
-  </si>
-  <si>
-    <t>El empleado pudo aumentar sus conocimientod despues de la capacitación</t>
-  </si>
-  <si>
     <t>Para Colombia, ¿Cuál es la altura a la cual se considera una actividad como trabajos en altura?</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>¿Qué elemento de los siguientes es una medida preventiva diseñada para salvaguardar al rescatista durante una operación de rescate?</t>
   </si>
   <si>
-    <t xml:space="preserve">El empleado pudo aumentar sus conocimientod despues de la capacitación </t>
-  </si>
-  <si>
     <t>Qué consideraciones se deben tener en cuenta después de realizar trabajos con peligros eléctricos</t>
   </si>
   <si>
@@ -118,12 +109,6 @@
     <t xml:space="preserve">El control de acceso en los espacios confinados pertenece a: </t>
   </si>
   <si>
-    <t xml:space="preserve">El estudiante cumplio con la asistencia a la capacitación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudiante tenia conocimientos previos del modulo </t>
-  </si>
-  <si>
     <t>¿Cuáles son los trabajadores que están exentos de cumplir con la normativa colombiana sobre trabajos en altura?</t>
   </si>
   <si>
@@ -215,6 +200,179 @@
   </si>
   <si>
     <t>SIN CRITERIOS</t>
+  </si>
+  <si>
+    <t>¿Si no se ha clasificado un espacio confinado, se podría ingresar a realizar la actividad?</t>
+  </si>
+  <si>
+    <t>El trabajo a realizar ha sido planeado, se ha identificado todos los peligros y se ha elaborado el permiso el correspondiente, sin embargo, el vigía viene en camino. ¿Usted inicia el trabajo mientras llega el vigía?</t>
+  </si>
+  <si>
+    <t>En el espacio confinado se ha identificado una atmósfera con 15%  de oxígeno, ¿usted podrá ejecutar la actividad con un respirador media cara con cartucho?.</t>
+  </si>
+  <si>
+    <t>Usted va a ejecutar un trabajo en espacios confinados y debe decir cual es el paso a paso que aplicaría, ¿con cual de los siguientes pasos se alinea?</t>
+  </si>
+  <si>
+    <t>Identifica el tipo y grado del espacio confinado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica los peligros asociados a la tarea y el entorno. </t>
+  </si>
+  <si>
+    <t>Controla los riesgos asociados a los peligros del entorno.</t>
+  </si>
+  <si>
+    <t>Aplica procedimientos para selección, manipulación y almacenamiento de equipos para trabajo en espacios confinados.</t>
+  </si>
+  <si>
+    <t>Diligencia de forma adecuada el permiso de la organización.</t>
+  </si>
+  <si>
+    <t>Aplica procedimiento de comunicación en el espacio confinado</t>
+  </si>
+  <si>
+    <t>Se observa que la empresa ejecuta control sobre la vigencia de las certificaciones de los trabajadores (trabajador entrante, vigía, supervisor)</t>
+  </si>
+  <si>
+    <t>Se observa que la empresa ejecuta control sobre procedimientos (intervención, energías peligrosas, detección de gases, comunicación, etc.).</t>
+  </si>
+  <si>
+    <t>Se observa que la empresa ejecuta control sobre los equipos de protección y control para espacios confinados (verificación anual y estado de los equipos de protección según corresponda).</t>
+  </si>
+  <si>
+    <t>Se observa que la empresa cuenta con suficiencia en los equipos de protección y control para los diferentes escenarios de espacios confinados en la organización.</t>
+  </si>
+  <si>
+    <t>Se observa que la empresa cuenta con disponibilidad de recursos técnicos y humanos para la actuación y rescate ante una emergencia asociada a trabajo en espacios confinados..</t>
+  </si>
+  <si>
+    <t>Para trabajar sin tensión, es necesario aplicar las 5 reglas de oro. La medición de la ausencia de voltaje es necesaria hacerla solo en el punto de bloqueo, y no es necesario realizarla en el punto o tablero de trabajo.</t>
+  </si>
+  <si>
+    <t>Si usted está trabajando sin tensión en un tablero o punto, y es necesario realizar algún trabajo con tensión en otro punto o tablero. Usted puede alternar los trabajos siempre y cuando realice el permiso para trabajo con tensión.</t>
+  </si>
+  <si>
+    <t>Si usted está trabajando con un ayudante que no tiene CONTE. Este ayudante puede realizar trabajos sin tensión y trabajos con tensión, siempre y cuando usted esté a su lado en todo momento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI usted está trabajando sobre un poste a intemperie en un circuito de baja tensión, podrá continuar su trabajo a pesar de que haya presagios de lluvia o se perciba la presencia de lluvia en lugares cercanos si y solo si, realiza el trabajo sin tensión. </t>
+  </si>
+  <si>
+    <t>Al trabajar dentro de una subestación eléctrica de media a baja tensión.  Usted podrá laborar en el seccionador de media tensión, solo con accionar este, sin necesidad de realizar la desconexión en los cortacircuitos externos ubicados en el poste (cañuelas).</t>
+  </si>
+  <si>
+    <t>Al trabajar dentro de una subestación eléctrica de media a baja tensión. Usted podrá trabajar sin casco de protección, si se identifica que no hay peligros de objetos que caigan en la parte superior:</t>
+  </si>
+  <si>
+    <t>Si un tablero eléctrico de potencia y control de una máquina tiene un transformador de 440V-110V para el control y este se daña. Se puede instalar una acometida de 110V directa para alimentar el control, sin incumplir requisitos legales ni incrementar el riesgo.</t>
+  </si>
+  <si>
+    <t>SI un breaker 100 amps cualesquiera falla. Este puede ser remplazado por un breaker de 125 amps, de forma permanente si no se tiene en el almacén de la misma capacidad.</t>
+  </si>
+  <si>
+    <t>Si un breaker trifásico, sufre una falla en una de sus fases. Se puede realizar un puenteo de la fase en cuestión sin incrementar el riesgo para el personal técnico u operativo.</t>
+  </si>
+  <si>
+    <t>Al maniobrar la palanca de un seccionador de media tensión, puede hacerlo sin los elementos de protección como botas y guantes dieléctricos, siempre y cuando la puerta del gabinete del seccionador esté cerrada.</t>
+  </si>
+  <si>
+    <t>Subestación. Aplica las 5 reglas de oro para poder trabajar en la celda del transformador. CRITERIOS: 
+El técnico debe demostrar que debe:
+• Colocarse todos los elementos de protección: Botas y guantes dieléctricos, mascarilla de protección facial, Casco dieléctrico.
+• Desnergizar el seccionador del transformador, debe 
+• Desnergizar todos los breakers de baja tensión incluyendo la confirmación del breaker de transferencia automática lado normal si la hubiere.
+• Condenar el seccionador del transformador
+• Verificar la ausencia de tensión mediante herramienta de baja tensión luminoso y audible, con el uso de una pértiga.
+• Instalar con la pértiga el cortacircuito para la liberación de la energía residual 
+• Señalizar</t>
+  </si>
+  <si>
+    <t>Subestación. Aplica las 5 reglas de oro para trabajar en la transferencia automática principal. CRITERIOS: 
+El técnico debe demostrar que debe:
+• Colocarse todos los elementos de protección: Botas y guantes dieléctricos, mascarilla de protección facial, Casco dieléctrico.
+• Debe desnergizar el seccionador del transformador y condenar
+• Debe apagar la planta de emergencia y condenar su arranque automático y manual.
+• Debe desnergizar los breakers de baja tensión en el tablero de distribución.
+• Debe medir ausencia de tensión salida de breaker principal normal.
+• Debe medir ausencia de tensión salida de breaker principal emergencia.
+• Debe aplicar la liberación de energía en la platina de cobre que une ambas líneas de suministro de energía.</t>
+  </si>
+  <si>
+    <t>Subestación. Aplica las 5 reglas de oro para trabajar en el todo el tablero de distribución de baja tensión.  CRITERIOS: 
+El técnico debe demostrar que debe:
+• Colocarse todos los elementos de protección: Botas y guantes dieléctricos, mascarilla de protección facial, Casco dieléctrico.
+• Debe desnergizar el seccionador del transformador y condenar
+• Debe apagar la planta de emergencia y condenar su arranque automático y manual.
+• Debe desnergizar los breakers de baja tensión en el tablero de distribución.
+• Debe medir ausencia de tensión salida de breaker principal normal.
+• Debe medir ausencia de tensión salida de breaker principal emergencia.
+• Debe aplicar la liberación de energía en la platina de cobre que une ambas líneas de suministro de energía.</t>
+  </si>
+  <si>
+    <t>Tablero de potencia en planta. Aplica las 5 reglas de oro para trabajar en el tablero de potencia en planta. CRITIERIOS: 
+El técnico debe demostrar que debe:
+• Colocarse todos los elementos de protección: Botas y guantes dieléctricos,  Casco dieléctrico.
+• Saber identificar el breaker en la subestación que alimenta el tablero, utilizando el diagrama unifilar.
+• Desenergizar el breaker correspondiente, condenar.
+• Medir ausencia de tensión parte debajo del breaker. Debe medir entre fases L1L2, L2L3, L1L3, L1 y tierra, L2 y tierra y L3 y tierra.
+• Debe medir ausencia de tensión en la entrada del tablero que va a intervenir.
+• Cortocircuitar en tablero que va a intervenir.
+• Señalizar el lugar de trabajo.</t>
+  </si>
+  <si>
+    <t>Procedimiento de trabajo seguro para el cambio de un motor eléctrico. Aplica las 5 reglas de oro y desmonta de cables eléctricos e instalación de cables eléctricos para nuevo motor de forma segura. CRITERIOS: 
+El técnico debe demostrar que debe:
+• Colocarse todos los elementos de protección: Botas y guantes dieléctricos,  Casco dieléctrico.
+• Saber identificar el breaker en el tablero que alimenta al motor, utilizando el diagrama unifilar.
+• Desenergizar el breaker correspondiente, condenar.
+• Medir ausencia de tensión parte debajo del breaker. Debe medir entre fases L1L2, L2L3, L1L3, L1 y tierra, L2 y tierra y L3 y tierra.
+• Intentar dar arranque al motor mediante su star stop o elemento de maniobra.
+• Debe medir ausencia de tensión en la entrada del motor a intervenir.
+• Cortocircuitar a la salida del breaker del motor  que va a intervenir.
+• Señalizar el lugar de trabajo.
+• Iniciar la desconexión con las líneas de fuerza y finalizar con el conductor a tierra
+• Para instalar al nuevo motor, iniciar con el conductor a tierra y posterior instalar las líneas de fuerza.</t>
+  </si>
+  <si>
+    <t>Procedimiento de trabajo seguro para el cambio de un breaker en tablero de distribución de baja tensión en subestación.   CRITERIOS: 
+El técnico debe demostrar que debe:
+• Colocarse todos los elementos de protección: Botas y guantes dieléctricos,  protección facial, Casco dieléctrico.
+• Saber identificar el breaker que va a cambiar utilizando el diagrama unifilar.
+• Desenergizar el breaker correspondiente, condenar.
+• Medir ausencia de tensión parte debajo del breaker. Debe medir entre fases L1L2, L2L3, L1L3, L1 y tierra, L2 y tierra y L3 y tierra.
+• Desnergizar todos los tableros que alimenta el breaker a cambiar.
+• Cortocircuitar a la salida del breaker que va a intervenir.
+• Señalizar el lugar de trabajo.
+• Con el uso de los guantes dieléctricos Iniciar la desconexión de las líneas debajo del breaker.
+• Desmontar el breaker correspondiente (si es posible)
+• Desconectar fase por fase y si es posible ir colocando la fase desconectada en el nuevo breaker
+• Montar el nuevo breaker
+• Instalar las líneas debajo del breaker.</t>
+  </si>
+  <si>
+    <t>Control sobre la vigencia de las certificaciones CONTE de los técnicos electricistas.</t>
+  </si>
+  <si>
+    <t>Control sobre la tenencia de dispositivos de condenación y etiquetado de todo tipo de breakers a todos los técnicos electricistas.</t>
+  </si>
+  <si>
+    <t>Control sobre la tenencia de dispositivos de medición de voltaje a todos los técnicos electricistas, acorde a los niveles de voltaje que maneja la organización.</t>
+  </si>
+  <si>
+    <t>Control sobre la verificación semestral en laboratorio de los guantes dieléctricos (acorde niveles de tensión de la organización).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementación de procedimiento de habilitación de técnicos electricistas que trabajan con tensión.</t>
+  </si>
+  <si>
+    <t>Capacitación en primeros auxilios y RCP para técnicos electricistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibilidad de recursos técnicos y humanos para la actuación y rescate ante una emergencia asociada a trabajo con exposición de riesgo eléctrico. </t>
+  </si>
+  <si>
+    <t>Pregunta en espera de entrega…</t>
   </si>
 </sst>
 </file>
@@ -288,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -296,6 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,34 +754,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,22 +792,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -662,22 +821,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -691,22 +850,22 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -720,25 +879,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -752,22 +911,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -781,22 +940,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -810,22 +969,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -839,22 +998,22 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -868,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -897,22 +1056,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -926,22 +1085,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -955,22 +1114,22 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -984,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1013,22 +1172,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1042,22 +1201,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1071,22 +1230,22 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1100,22 +1259,22 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>7</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1129,22 +1288,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1158,22 +1317,22 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>9</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1187,22 +1346,22 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -1213,28 +1372,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1242,28 +1401,28 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>33</v>
+      <c r="H23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,28 +1430,28 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="H24" t="s">
-        <v>4</v>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1303,22 +1462,22 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1332,28 +1491,28 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1361,25 +1520,25 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1390,25 +1549,25 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,28 +1578,28 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1448,25 +1607,25 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1477,25 +1636,25 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G31">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1506,25 +1665,25 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1535,25 +1694,25 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1564,22 +1723,22 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1593,28 +1752,28 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D35">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1622,25 +1781,25 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1651,25 +1810,25 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1680,28 +1839,28 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1709,25 +1868,25 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1735,28 +1894,28 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
         <v>49</v>
       </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
       <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1764,57 +1923,57 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
         <v>49</v>
       </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
       <c r="G41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
         <v>49</v>
       </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>56</v>
-      </c>
       <c r="G42">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,28 +1981,28 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
         <v>49</v>
       </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
       <c r="G43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1851,28 +2010,28 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
         <v>49</v>
       </c>
-      <c r="D44">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
       <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1880,28 +2039,28 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
         <v>49</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="E45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45" t="s">
-        <v>4</v>
+      <c r="H45" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1912,25 +2071,25 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D46">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1941,28 +2100,28 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1970,25 +2129,25 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D48">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1999,25 +2158,25 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D49">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2028,22 +2187,22 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
         <v>50</v>
       </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" t="s">
-        <v>55</v>
-      </c>
       <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>31</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2057,54 +2216,54 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
         <v>50</v>
       </c>
-      <c r="D51">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" t="s">
-        <v>55</v>
-      </c>
       <c r="G51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52">
         <v>8</v>
       </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
         <v>50</v>
       </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-      <c r="E52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
       <c r="G52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2115,25 +2274,25 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
         <v>50</v>
       </c>
-      <c r="D53">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
       <c r="G53">
-        <v>8</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2144,25 +2303,25 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" t="s">
         <v>50</v>
       </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
       <c r="G54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,25 +2332,25 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
         <v>50</v>
       </c>
-      <c r="D55">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
       <c r="G55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,25 +2361,25 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2231,28 +2390,28 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2260,25 +2419,25 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2289,25 +2448,25 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G59">
-        <v>4</v>
-      </c>
-      <c r="H59" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2315,57 +2474,57 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G60">
-        <v>5</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>59</v>
       </c>
       <c r="J60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2373,28 +2532,28 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G62">
-        <v>7</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>61</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2402,28 +2561,28 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2431,28 +2590,28 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G64">
-        <v>9</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2460,28 +2619,28 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G65">
-        <v>10</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2489,28 +2648,28 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H66" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2518,28 +2677,28 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2547,31 +2706,902 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" t="s">
+        <v>51</v>
+      </c>
+      <c r="G68">
         <v>9</v>
       </c>
-      <c r="E68" t="s">
-        <v>53</v>
-      </c>
-      <c r="F68" t="s">
-        <v>57</v>
-      </c>
-      <c r="G68">
-        <v>3</v>
-      </c>
       <c r="H68" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>70</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81">
+        <v>7</v>
+      </c>
+      <c r="H81" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
+        <v>81</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>83</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" t="s">
+        <v>51</v>
+      </c>
+      <c r="G86">
+        <v>12</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87">
+        <v>13</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89">
+        <v>15</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90">
+        <v>16</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>90</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>47</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s">
+        <v>92</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94">
         <v>20</v>
       </c>
-      <c r="J68">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>93</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>94</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97">
+        <v>23</v>
+      </c>
+      <c r="H97" t="s">
+        <v>96</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="5">
+        <v>6</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J98"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2591,13 +3621,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2605,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2616,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2627,7 +3657,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2638,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>3</v>
